--- a/public/assets/template/Mati-Template-Import.xlsx
+++ b/public/assets/template/Mati-Template-Import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\elampid-mojokerto\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB68A4-C09B-495E-84A0-442897890680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C823FA-2913-4502-9833-4B12F76961F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E0BB000-9170-495F-A7BF-325020457044}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>2023-01-11</t>
   </si>
   <si>
-    <t>2023-02-2023</t>
-  </si>
-  <si>
     <t>2023-05-30</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>13</v>
@@ -642,7 +642,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>13</v>
@@ -671,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -700,7 +700,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -726,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>13</v>
